--- a/AIdGLendInCheck/Test Data/Sanity_LandInCheck.xlsx
+++ b/AIdGLendInCheck/Test Data/Sanity_LandInCheck.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Test Scenarios LandInCheck</t>
   </si>

--- a/AIdGLendInCheck/Test Data/Sanity_LandInCheck.xlsx
+++ b/AIdGLendInCheck/Test Data/Sanity_LandInCheck.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>Test Scenarios LandInCheck</t>
   </si>
